--- a/data/time.xlsx
+++ b/data/time.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masay\OneDrive\ドキュメント\project_GALLERIA\研究\STUDY\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D6FADFFC-7652-2446-8D7A-5D260C1E8E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{25DEEB87-D8CC-45E1-B67C-27859AC10EA5}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{D6FADFFC-7652-2446-8D7A-5D260C1E8E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9CB52640-FAF7-450C-889A-D3652D4FD9D4}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{BAE43EFA-5163-2E41-8473-B88AC450AD00}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE43EFA-5163-2E41-8473-B88AC450AD00}"/>
   </bookViews>
   <sheets>
-    <sheet name="nam_and_data" sheetId="1" r:id="rId1"/>
+    <sheet name="name_and_data" sheetId="1" r:id="rId1"/>
     <sheet name="data_only" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
-  <si>
-    <t>清水寺</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>二条城</t>
   </si>
@@ -45,67 +42,16 @@
     <t>伏見稲荷</t>
   </si>
   <si>
-    <t xml:space="preserve">金閣寺 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ギオンコーナー </t>
-  </si>
-  <si>
     <t>嵐山</t>
   </si>
   <si>
-    <t xml:space="preserve">祇園 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">八坂神社 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">京都御所 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀閣寺 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">錦市場 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">京都タワー </t>
-  </si>
-  <si>
-    <t xml:space="preserve">京都駅 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">龍安寺 </t>
-  </si>
-  <si>
     <t>伏見</t>
   </si>
   <si>
-    <t xml:space="preserve">東寺 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">高台寺 </t>
-  </si>
-  <si>
     <t>南禅寺</t>
   </si>
   <si>
-    <t xml:space="preserve">東福寺 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">平安神宮 </t>
-  </si>
-  <si>
     <t>嵐山モンキーパーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">東山 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">河原町 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">三十三間堂 </t>
   </si>
   <si>
     <t>下鴨神社</t>
@@ -280,6 +226,106 @@
     <rPh sb="13" eb="14">
       <t>オナゼィ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清水寺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都御所</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八坂神社</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二条城</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伏見稲荷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金閣寺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギオンコーナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嵐山</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祇園</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀閣寺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>錦市場</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都タワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都駅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>龍安寺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伏見</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東寺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高台寺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南禅寺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東福寺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平安神宮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嵐山モンキーパーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東山</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河原町</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三十三間堂</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下鴨神社</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -765,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65B07B2-FCE4-2840-992C-E3F53E926740}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -776,118 +822,118 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="W6" s="11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -968,7 +1014,7 @@
     </row>
     <row r="8" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>41</v>
@@ -1048,7 +1094,7 @@
     </row>
     <row r="9" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>35</v>
@@ -1128,7 +1174,7 @@
     </row>
     <row r="10" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>58</v>
@@ -1208,7 +1254,7 @@
     </row>
     <row r="11" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>19</v>
@@ -1288,7 +1334,7 @@
     </row>
     <row r="12" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>59</v>
@@ -1368,7 +1414,7 @@
     </row>
     <row r="13" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>27</v>
@@ -1448,7 +1494,7 @@
     </row>
     <row r="14" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -1528,7 +1574,7 @@
     </row>
     <row r="15" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>35</v>
@@ -1608,7 +1654,7 @@
     </row>
     <row r="16" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>41</v>
@@ -1688,7 +1734,7 @@
     </row>
     <row r="17" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>34</v>
@@ -1768,7 +1814,7 @@
     </row>
     <row r="18" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>27</v>
@@ -1848,7 +1894,7 @@
     </row>
     <row r="19" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>28</v>
@@ -1928,7 +1974,7 @@
     </row>
     <row r="20" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -2008,7 +2054,7 @@
     </row>
     <row r="21" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>43</v>
@@ -2088,7 +2134,7 @@
     </row>
     <row r="22" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>39</v>
@@ -2168,7 +2214,7 @@
     </row>
     <row r="23" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -2248,7 +2294,7 @@
     </row>
     <row r="24" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>45</v>
@@ -2328,7 +2374,7 @@
     </row>
     <row r="25" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -2408,7 +2454,7 @@
     </row>
     <row r="26" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>33</v>
@@ -2488,7 +2534,7 @@
     </row>
     <row r="27" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>54</v>
@@ -2568,7 +2614,7 @@
     </row>
     <row r="28" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2648,7 +2694,7 @@
     </row>
     <row r="29" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -2728,7 +2774,7 @@
     </row>
     <row r="30" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>23</v>
@@ -2808,7 +2854,7 @@
     </row>
     <row r="31" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>43</v>
@@ -2889,6 +2935,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
